--- a/Raport Techniczny.xlsx
+++ b/Raport Techniczny.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-10-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-10-27" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,30 +471,163 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="60" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Abcde</t>
+          <t>ccccc</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08 20:48:55</t>
+          <t>2024-10-27 16:03:22</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08 20:49:16</t>
+          <t>2024-10-27 16:04:35</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>efghi</t>
+          <t>ggggg</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>Dominik</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>gahagjgfdsh</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 15:58:39</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 16:31:59</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>gggg</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
           <t>Maciek</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>hhhhhhh</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 16:07:29</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 16:32:07</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>vvvvvv</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Maciek</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>ljkhdjkfhkjsfdahsafhla;ksfj;asklfj;aklsfjaklsd;fjs;klfjsldk;fjdklsfjdklsjflkdsjfklsjfklsjflkjsfkljsklfjklsjfklsjflksjflksjfkljsklfjsadlkfjaklsfjklasjfklasfjlkjsflkjsklfjsklfjklsfjlksjflksjf</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 16:56:56</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 16:57:10</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>ddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddd</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Maciek</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 17:40:51</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27 17:41:07</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>kkkkkkkkkkkkkkkkkkkkkkkkk</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
